--- a/published-data/fonds-solidarite/fds-2021-07-22/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-22/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -8135,13 +8135,13 @@
         <v>12</v>
       </c>
       <c r="C201">
-        <v>53603</v>
+        <v>53602</v>
       </c>
       <c r="D201">
         <v>13160</v>
       </c>
       <c r="E201">
-        <v>107871483</v>
+        <v>107871396</v>
       </c>
       <c r="F201" t="s">
         <v>15</v>
